--- a/common/LevelBoss.xlsx
+++ b/common/LevelBoss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +32,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -40,6 +48,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -47,6 +56,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">name </t>
     </r>
     <r>
@@ -55,6 +72,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>string</t>
@@ -62,6 +80,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">portray </t>
     </r>
     <r>
@@ -78,6 +103,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">hp </t>
     </r>
     <r>
@@ -86,6 +119,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -93,6 +127,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">reward </t>
     </r>
     <r>
@@ -107,18 +148,30 @@
       <t>int</t>
     </r>
   </si>
+  <si>
+    <t>马冬梅</t>
+  </si>
+  <si>
+    <t>马化腾</t>
+  </si>
+  <si>
+    <t>马云</t>
+  </si>
+  <si>
+    <t>马老七</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,15 +195,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,100 +305,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,27 +337,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -292,7 +357,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -324,181 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,17 +591,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +630,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,59 +674,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,137 +708,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,8 +858,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -843,7 +911,8 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10 2" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1115,12 +1184,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1162,24 +1231,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>240000</v>
       </c>
     </row>
     <row r="7" spans="1:1">
